--- a/data/4/20230604-a1r-nc-session4-j_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-j_transcript.xlsx
@@ -1,390 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B14C33-F343-A541-A3D5-04A8675F899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"10:00"</t>
-  </si>
-  <si>
-    <t>I mean me personally I think they get to like that campaigning and things like that is already too much of a money game that makes an uneven playing field. So really the only one of these I'm for is kind of closing out the loopholes for I guess, in a sense like foreign interference for campaigning and stuff like that because I've always wanted it to be more on an even playing field. That's not like hey you're a Democrat or Republican.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Public and primary Senate Congress, presidential, whatever. So you're going to we're going to donate a lot of money to you while everyone else is Left Behind. So I don't really agree with raising the limit on the other stuff for getting them. More money, doesn't make sense to me.</t>
-  </si>
-  <si>
-    <t>"10:45"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with you Christian. I don't know why, even there's a proposal to raise the limit beyond the foreign contributions in right now. Is it required to disclose if any candidate or party getting money from foreign organizations that that should be already in place? I would believe but we should also</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Close the roof host.</t>
-  </si>
-  <si>
-    <t>"11:20"</t>
-  </si>
-  <si>
-    <t>I am, I am actually for raising the limits on contributions because</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big corporations such as probably one that will be that will be coming about in the coming election. One political candidate, you know, they're I don't know. They they get an extra boost by having wealthy financers towards their back them up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> so, yes, I think there should be a cap individual and for parties,</t>
-  </si>
-  <si>
-    <t>"13:57"</t>
-  </si>
-  <si>
-    <t>I like the idea of full disclosure of contributors to campaign ads. I know I often ask myself whenever I'm watching campaign ads on TV during election Cycles, they don't always disclosure is not clearly disclosed, you know, who the major I guess supporter is my oftentimes but I really want to know where this is coming from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Me, that gives me a better idea of, you know, it is someone is an agency or entity that I don't support supporting this candidate and it will probably actually influence the way I would vote.</t>
-  </si>
-  <si>
-    <t>"14:36"</t>
-  </si>
-  <si>
-    <t>I'm not really understanding here, the giving the public funds to like the Democracy vouchers. I feel like honestly they get enough donations and they have enough funds from the people that want to donate. I don't really think I agree with using more public funds and then turn around and matching it as well.</t>
-  </si>
-  <si>
-    <t>"15:02"</t>
-  </si>
-  <si>
-    <t>Yeah, definitely Meghan was saying, I also agree with K. Like it would be nice, like have more transparency because it's like, hey, this like one guy is like, oh yeah, I got like, you know, ten million dollars from Coca-Cola. And now I'm trying to get like Cokes products, like, you know, certain products all in school and everything and be like, hey, I think, you know, you're like pushing an agenda, like, it'd be nice to have that transparency, so we could make those links easier without like, going into conspiracies. But</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Also like yeah I don't know why there's no proposal for like hey every candidate gets a set because they should get some State funding because it is like yeah they're going to be who's in charge but should be a set amount for each person. Not just all</t>
-  </si>
-  <si>
-    <t>"15:51"</t>
-  </si>
-  <si>
-    <t>Actually Chris and you kind of raised an interesting idea which I think actually, I would be in favor of something like that is that each candidate has to run on the same budget. I mean that would really level the playing field at that point because yeah this issue of Public Funding. Yeah, why I mean Public Funding is pretty strapped as it is just for basic needs for public infrastructure support. I don't see why we would have to fund more into the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Election.</t>
-  </si>
-  <si>
-    <t>"17:43"</t>
-  </si>
-  <si>
-    <t>I just really don't know how they're going to get it non partisan redistricting commission each state to redraw the boundaries and then when would the redrawing of the boundaries start so</t>
-  </si>
-  <si>
-    <t>"18:03"</t>
-  </si>
-  <si>
-    <t>Yeah I'm with Patty on this one in concept. I'm in favor of the idea but I really want to know how they proposed to implement something like this. It did this too many unanswered questions as far as the how</t>
-  </si>
-  <si>
-    <t>"18:22"</t>
-  </si>
-  <si>
-    <t>Yeah, I I feel the same, I know. So I see it needed to do that because it's becoming more and more and more problem. I'm kind of thinking the thing we discussed yesterday about this, multiple like a choice, combine, several districts into one, so that could partially address the problem maker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The districting less of an issue and that is critical.</t>
-  </si>
-  <si>
-    <t>"20:21"</t>
-  </si>
-  <si>
-    <t>I think we all kind of said earlier that you know we do believe that election day should be a national holiday that way everybody feels. They have their fair chance of getting to the polls and casting their vote as far as 16 year olds getting to vote in the Local School elections. I think that that would be a good test run to get them ready to for actual voting in the government. I mean who better to vote your local school officials, then the kids that have to deal with them and they make decisions for them kids.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think I would like to see them have somewhat of a voice in that opinion.</t>
-  </si>
-  <si>
-    <t>"20:57"</t>
-  </si>
-  <si>
-    <t>You definitely agree with that there as well. Like because I mean what better way to like kind of get an individual like involved in something like because like it directly affects them or it could but yeah. That could be like a powerful way for them to feel kind of like how voting can be important and make change. That's a and I notice on one of the things though, it was meant like proposal was mentioning like</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fine to like find people making it mandatory and to me, that doesn't make sense because I mean, yeah, free country. We should be free to choose not to vote if that's, you know. So how an individual chooses? So that seemed like a weird.</t>
-  </si>
-  <si>
-    <t>"21:42"</t>
-  </si>
-  <si>
-    <t>I'm actually for making vote mandatory because that's a duty lies like just being a jewelry. Everybody the Democracy only works if ooh, you know, we have more and more people participating it as for the voting by 16 year old in school district.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Actually have some experience, you know from my own experience. I came from China and during the time of the cultural revolution students were given, basically, they will give you like a free power to do.</t>
-  </si>
-  <si>
-    <t>"22:27"</t>
-  </si>
-  <si>
-    <t>No. Hi. I'm I am for if we're going to make voting a national holiday, then we should also make it a Civic obligation because we're Americans, we should.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fight for our country.</t>
-  </si>
-  <si>
-    <t>"22:52"</t>
-  </si>
-  <si>
-    <t>I concur with Patti and essentially everyone else. I'm in general, I'm in favor of all the guests proposals including, you know, the students voting for their local districts. The only part that, I guess I'm a little on the fence about is, you know, the not on like jury duty as a Civic obligation. Maybe the how the penalty is determined. Should be</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Be a little more thought put into it.</t>
-  </si>
-  <si>
-    <t>"23:26"</t>
-  </si>
-  <si>
-    <t>I'm basically in favor of anything that increase, both internal, you know, more people will in the it's better for the democracy.</t>
-  </si>
-  <si>
-    <t>"23:43"</t>
-  </si>
-  <si>
-    <t>There's some interesting ways of looking at it, but I agree with the K on that topic of like, like, it should just be more than like it should be something different than like just a monetary fine, like a good. I think a quotes are indeed. It would be like well we don't like want to vote on that day, you know? Like if you don't want to vote like, you know, but throw in an our community service or something like that way, you're still kind of like</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a kind of helping Society out. But without having to be like, hey, you didn't do something so you got to pay money now because that's that's a tough situation. For a lot of people where money is very dispersed.</t>
-  </si>
-  <si>
-    <t>"24:26"</t>
-  </si>
-  <si>
-    <t>I like the community service idea. Yeah. Sounds more positive and also with it. Probably encourage even more for these people to vote.</t>
-  </si>
-  <si>
-    <t>"24:41"</t>
-  </si>
-  <si>
-    <t>An awesome to work in the post.</t>
-  </si>
-  <si>
-    <t>"29:26"</t>
-  </si>
-  <si>
-    <t>Yes, this would are into kind of how we had. I think it was yesterday. Got terrible memory but about how we were talking a little bit more about trying to make like Civic duties and processes and just kind of how things operate like more of a something they actually teach in school and something that's not elective that you have to pursue like, go out of your way to learn. So I don't know if that would be enough, but it seems like they'd be a good place to start because yeah, definitely.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think everyone Society like everyone would benefit more people, understood just kind of the structure and the process of the things of the world. They were living in.</t>
-  </si>
-  <si>
-    <t>"30:10"</t>
-  </si>
-  <si>
-    <t>I'm just going to throw it out there. Make a tick tock video.</t>
-  </si>
-  <si>
-    <t>"30:25"</t>
-  </si>
-  <si>
-    <t>so, I guess my question is,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Why are people not voting like this? These days legal? Is there a certain group or, you know, whatever?</t>
-  </si>
-  <si>
-    <t>"30:40"</t>
-  </si>
-  <si>
-    <t>I think the newer generation don't quite understand, they don't watch politics because like Patty said, they're too busy on Tick-Tock these days. So if they don't see it on social media, it's like they don't seem to get interested in it. And they just don't understand how important it is to be American and being America and cast your vote and try to make a difference. They don't value.</t>
-  </si>
-  <si>
-    <t>"31:07"</t>
-  </si>
-  <si>
-    <t>I could definitely see that but a sentiment that's kind of on and off like that. I've been around and kind of had myself on and off is sometimes the feeling of powerlessness, kind of that. Even though you vote and try nothing, nothing changes. You don't see any fruitful changes. Almost the feeling of like your vote doesn't matter. So, I voted all kind of feeling and I've been around some people who have had that Viewpoint and trying to look at it from their perspective.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You've like, I can, I could definitely see it. Like, I could try it, like, try and sympathize with it, not to understand it, but I think that's just kind of a feeling that's spreading is that powerlessness like a, your vote won't matter.</t>
-  </si>
-  <si>
-    <t>"32:02"</t>
-  </si>
-  <si>
-    <t>I just want to say, I think it's some of its powerlessness on some, some people's minds, but then on a lot of people's minds also it's just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apathy they don't really give a damn because it's not directly affecting them and that is something.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That we need to start working on in the community before it goes to whatever it needs to start in a community and needs to start in a family's house.</t>
-  </si>
-  <si>
-    <t>"32:54"</t>
-  </si>
-  <si>
-    <t>I think making voting mandatory is going to be very tricky. A lot of people are going to get rebellious because some people just don't like being told what to do. Some people might not take that very well, I feel like hopefully we wouldn't see somebody tried to storm the capital again because they know they're being forced to do stuff now.</t>
-  </si>
-  <si>
-    <t>"33:19"</t>
-  </si>
-  <si>
-    <t>Definitely, I yeah, for you, what you said there? Because then for a lot of things in the, you know, the topic comes up like, hey, this is supposed to be a free free country, right? But like, yeah, that's taken with a lot of like, well, yeah, it's not just like you're free to do anything. Like, I mean, you are, but there can be consequences to actions, good or bad. But, yeah, I can definitely, I'd have no idea either how to, like, even begin approaching that, making something like that mandatory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's definitely an interesting thing to think about though because yeah that that could go against what a lot of people believe as well.</t>
-  </si>
-  <si>
-    <t>"33:59"</t>
-  </si>
-  <si>
-    <t>So actually we were talking about the penalties earlier, how about the giving a hundred bucks to everybody who votes. And also I like a hood news about the Australia, they have this mandatory voting Australians in my opinion. Also kind of people like America. They are very building rebellious. So if they can do it, somehow probably can do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That too.</t>
-  </si>
-  <si>
-    <t>"34:31"</t>
-  </si>
-  <si>
-    <t>I mean, you know what? I like that, actually. I think I'd actually tends to work very well, with our society. Incentivizing tends to be much more effective than penalty or anything punitive. I mean, you want to motivate and can be different ways. I mean, that's certainly, a holiday was a, is a good one. I think at least makes it easier for those that are actually go out of their way with</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Double difficulty, just trying to cast their votes. So yeah I think that there's more to it as far as, you know, trying to create effective incentives.</t>
-  </si>
-  <si>
-    <t>"35:23"</t>
-  </si>
-  <si>
-    <t>Definitely agree with both K and being there. That's, that's always a good way to get on, you know, to appeal to the good nature of people is to reward, not punish and I think that definitely be the ways to go about it. If, if it was going to happen, would be to like yeah, look first look at ways to incentivize instead of punished. I think that would</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> be that the better of the two roads to choose for that.</t>
-  </si>
-  <si>
-    <t>"36:18"</t>
-  </si>
-  <si>
-    <t>For me, you pay a fine when you break a traffic law, you lose your license. If you go to jail for DWI,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Living in America, we have certain rights and Privileges, and all of us as Americans. We need to ensure that it stays that way. And that's like, even though you feel powerless that your vote doesn't count,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It does count. I don't know.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't think it would.</t>
-  </si>
-  <si>
-    <t>"37:08"</t>
-  </si>
-  <si>
-    <t>I think where I was kind of going with this. As you know, a lot of people are going to be like, you know, you're forcing me to vote. I don't want to vote even if they do have the privilege of still to have that option. I feel like if you force them to it could cause Rebellion because well, if I'm actually don't I'm free, I don't want to, you know, and you shouldn't have to make me.</t>
-  </si>
-  <si>
-    <t>"37:43"</t>
-  </si>
-  <si>
-    <t>Yeah, definitely, I think that's like where we're meeting in K. We're talking about, we're like, it would be much better, like I would hope they would only do something where it's like, let's incentivize voting instead of like making it a punishable thing. I think that would be the first like, definitely, like the best way to treat like in a sense like a guess, do a trial run of trying to get more people to vote would be more incentives because yeah, people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Might not feel like, like, oh, am I going to vote? What's it going to change? But it's like, well, yeah, like get out there with your friends, tell your friends and you, maybe I'll share a few points with and get out and vote. Maybe actually see change happen while also being rewarded in other ways, too.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -460,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -569,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1651,803 +1302,974 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"10:00"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I mean me personally I think they get to like that campaigning and things like that is already too much of a money game that makes an uneven playing field. So really the only one of these I'm for is kind of closing out the loopholes for I guess, in a sense like foreign interference for campaigning and stuff like that because I've always wanted it to be more on an even playing field. That's not like hey you're a Democrat or Republican.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"10:00"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Public and primary Senate Congress, presidential, whatever. So you're going to we're going to donate a lot of money to you while everyone else is Left Behind. So I don't really agree with raising the limit on the other stuff for getting them. More money, doesn't make sense to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"10:45"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with you Christian. I don't know why, even there's a proposal to raise the limit beyond the foreign contributions in right now. Is it required to disclose if any candidate or party getting money from foreign organizations that that should be already in place? I would believe but we should also</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"10:45"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Close the roof host.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"11:20"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>I am, I am actually for raising the limits on contributions because</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"11:20"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Big corporations such as probably one that will be that will be coming about in the coming election. One political candidate, you know, they're I don't know. They they get an extra boost by having wealthy financers towards their back them up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"11:20"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> so, yes, I think there should be a cap individual and for parties,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"13:57"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I like the idea of full disclosure of contributors to campaign ads. I know I often ask myself whenever I'm watching campaign ads on TV during election Cycles, they don't always disclosure is not clearly disclosed, you know, who the major I guess supporter is my oftentimes but I really want to know where this is coming from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"13:57"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Me, that gives me a better idea of, you know, it is someone is an agency or entity that I don't support supporting this candidate and it will probably actually influence the way I would vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>10364</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"14:36"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>I'm not really understanding here, the giving the public funds to like the Democracy vouchers. I feel like honestly they get enough donations and they have enough funds from the people that want to donate. I don't really think I agree with using more public funds and then turn around and matching it as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"15:02"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"15:02"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, definitely Meghan was saying, I also agree with K. Like it would be nice, like have more transparency because it's like, hey, this like one guy is like, oh yeah, I got like, you know, ten million dollars from Coca-Cola. And now I'm trying to get like Cokes products, like, you know, certain products all in school and everything and be like, hey, I think, you know, you're like pushing an agenda, like, it'd be nice to have that transparency, so we could make those links easier without like, going into conspiracies. But</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:02"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Also like yeah I don't know why there's no proposal for like hey every candidate gets a set because they should get some State funding because it is like yeah they're going to be who's in charge but should be a set amount for each person. Not just all</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:51"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Actually Chris and you kind of raised an interesting idea which I think actually, I would be in favor of something like that is that each candidate has to run on the same budget. I mean that would really level the playing field at that point because yeah this issue of Public Funding. Yeah, why I mean Public Funding is pretty strapped as it is just for basic needs for public infrastructure support. I don't see why we would have to fund more into the</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:51"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Election.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"17:43"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>I just really don't know how they're going to get it non partisan redistricting commission each state to redraw the boundaries and then when would the redrawing of the boundaries start so</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"18:03"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Yeah I'm with Patty on this one in concept. I'm in favor of the idea but I really want to know how they proposed to implement something like this. It did this too many unanswered questions as far as the how</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:22"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I I feel the same, I know. So I see it needed to do that because it's becoming more and more and more problem. I'm kind of thinking the thing we discussed yesterday about this, multiple like a choice, combine, several districts into one, so that could partially address the problem maker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:22"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The districting less of an issue and that is critical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>10364</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"20:21"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I think we all kind of said earlier that you know we do believe that election day should be a national holiday that way everybody feels. They have their fair chance of getting to the polls and casting their vote as far as 16 year olds getting to vote in the Local School elections. I think that that would be a good test run to get them ready to for actual voting in the government. I mean who better to vote your local school officials, then the kids that have to deal with them and they make decisions for them kids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>10364</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"20:21"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think I would like to see them have somewhat of a voice in that opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"20:57"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>You definitely agree with that there as well. Like because I mean what better way to like kind of get an individual like involved in something like because like it directly affects them or it could but yeah. That could be like a powerful way for them to feel kind of like how voting can be important and make change. That's a and I notice on one of the things though, it was meant like proposal was mentioning like</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"20:57"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fine to like find people making it mandatory and to me, that doesn't make sense because I mean, yeah, free country. We should be free to choose not to vote if that's, you know. So how an individual chooses? So that seemed like a weird.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"21:42"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I'm actually for making vote mandatory because that's a duty lies like just being a jewelry. Everybody the Democracy only works if ooh, you know, we have more and more people participating it as for the voting by 16 year old in school district.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"21:42"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Actually have some experience, you know from my own experience. I came from China and during the time of the cultural revolution students were given, basically, they will give you like a free power to do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"22:27"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>No. Hi. I'm I am for if we're going to make voting a national holiday, then we should also make it a Civic obligation because we're Americans, we should.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"22:27"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fight for our country.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"22:52"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>I concur with Patti and essentially everyone else. I'm in general, I'm in favor of all the guests proposals including, you know, the students voting for their local districts. The only part that, I guess I'm a little on the fence about is, you know, the not on like jury duty as a Civic obligation. Maybe the how the penalty is determined. Should be</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"22:52"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Be a little more thought put into it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>10556</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"23:26"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I'm basically in favor of anything that increase, both internal, you know, more people will in the it's better for the democracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:43"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>There's some interesting ways of looking at it, but I agree with the K on that topic of like, like, it should just be more than like it should be something different than like just a monetary fine, like a good. I think a quotes are indeed. It would be like well we don't like want to vote on that day, you know? Like if you don't want to vote like, you know, but throw in an our community service or something like that way, you're still kind of like</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"23:43"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At a kind of helping Society out. But without having to be like, hey, you didn't do something so you got to pay money now because that's that's a tough situation. For a lot of people where money is very dispersed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"24:26"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>I like the community service idea. Yeah. Sounds more positive and also with it. Probably encourage even more for these people to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>10556</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"24:41"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>An awesome to work in the post.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"29:26"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Yes, this would are into kind of how we had. I think it was yesterday. Got terrible memory but about how we were talking a little bit more about trying to make like Civic duties and processes and just kind of how things operate like more of a something they actually teach in school and something that's not elective that you have to pursue like, go out of your way to learn. So I don't know if that would be enough, but it seems like they'd be a good place to start because yeah, definitely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"29:26"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think everyone Society like everyone would benefit more people, understood just kind of the structure and the process of the things of the world. They were living in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"30:10"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>I'm just going to throw it out there. Make a tick tock video.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"30:25"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>so, I guess my question is,</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"30:25"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Why are people not voting like this? These days legal? Is there a certain group or, you know, whatever?</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>10364</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"30:40"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>I think the newer generation don't quite understand, they don't watch politics because like Patty said, they're too busy on Tick-Tock these days. So if they don't see it on social media, it's like they don't seem to get interested in it. And they just don't understand how important it is to be American and being America and cast your vote and try to make a difference. They don't value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"31:07"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n"/>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"31:07"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>I could definitely see that but a sentiment that's kind of on and off like that. I've been around and kind of had myself on and off is sometimes the feeling of powerlessness, kind of that. Even though you vote and try nothing, nothing changes. You don't see any fruitful changes. Almost the feeling of like your vote doesn't matter. So, I voted all kind of feeling and I've been around some people who have had that Viewpoint and trying to look at it from their perspective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"31:07"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You've like, I can, I could definitely see it. Like, I could try it, like, try and sympathize with it, not to understand it, but I think that's just kind of a feeling that's spreading is that powerlessness like a, your vote won't matter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"32:02"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>I just want to say, I think it's some of its powerlessness on some, some people's minds, but then on a lot of people's minds also it's just</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"32:02"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Apathy they don't really give a damn because it's not directly affecting them and that is something.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"32:02"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That we need to start working on in the community before it goes to whatever it needs to start in a community and needs to start in a family's house.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>10364</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"32:54"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>I think making voting mandatory is going to be very tricky. A lot of people are going to get rebellious because some people just don't like being told what to do. Some people might not take that very well, I feel like hopefully we wouldn't see somebody tried to storm the capital again because they know they're being forced to do stuff now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"33:19"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Definitely, I yeah, for you, what you said there? Because then for a lot of things in the, you know, the topic comes up like, hey, this is supposed to be a free free country, right? But like, yeah, that's taken with a lot of like, well, yeah, it's not just like you're free to do anything. Like, I mean, you are, but there can be consequences to actions, good or bad. But, yeah, I can definitely, I'd have no idea either how to, like, even begin approaching that, making something like that mandatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"33:19"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's definitely an interesting thing to think about though because yeah that that could go against what a lot of people believe as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"33:59"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>So actually we were talking about the penalties earlier, how about the giving a hundred bucks to everybody who votes. And also I like a hood news about the Australia, they have this mandatory voting Australians in my opinion. Also kind of people like America. They are very building rebellious. So if they can do it, somehow probably can do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48366</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"33:59"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"34:31"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>I mean, you know what? I like that, actually. I think I'd actually tends to work very well, with our society. Incentivizing tends to be much more effective than penalty or anything punitive. I mean, you want to motivate and can be different ways. I mean, that's certainly, a holiday was a, is a good one. I think at least makes it easier for those that are actually go out of their way with</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>10677</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"34:31"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Double difficulty, just trying to cast their votes. So yeah I think that there's more to it as far as, you know, trying to create effective incentives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"35:23"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Definitely agree with both K and being there. That's, that's always a good way to get on, you know, to appeal to the good nature of people is to reward, not punish and I think that definitely be the ways to go about it. If, if it was going to happen, would be to like yeah, look first look at ways to incentivize instead of punished. I think that would</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"35:23"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> be that the better of the two roads to choose for that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"36:18"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>For me, you pay a fine when you break a traffic law, you lose your license. If you go to jail for DWI,</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"36:18"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Living in America, we have certain rights and Privileges, and all of us as Americans. We need to ensure that it stays that way. And that's like, even though you feel powerless that your vote doesn't count,</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"36:18"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It does count. I don't know.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>48272</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"36:18"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't think it would.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>10364</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"37:08"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>I think where I was kind of going with this. As you know, a lot of people are going to be like, you know, you're forcing me to vote. I don't want to vote even if they do have the privilege of still to have that option. I feel like if you force them to it could cause Rebellion because well, if I'm actually don't I'm free, I don't want to, you know, and you shouldn't have to make me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"37:43"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, definitely, I think that's like where we're meeting in K. We're talking about, we're like, it would be much better, like I would hope they would only do something where it's like, let's incentivize voting instead of like making it a punishable thing. I think that would be the first like, definitely, like the best way to treat like in a sense like a guess, do a trial run of trying to get more people to vote would be more incentives because yeah, people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48513</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>93</v>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"37:43"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Might not feel like, like, oh, am I going to vote? What's it going to change? But it's like, well, yeah, like get out there with your friends, tell your friends and you, maybe I'll share a few points with and get out and vote. Maybe actually see change happen while also being rewarded in other ways, too.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B2FB17-5B4C-1B4B-9E9A-8D57AB14073B}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>